--- a/requirements/requirements-CQs.xlsx
+++ b/requirements/requirements-CQs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanar\Desktop\Work\IDA\Projects\GitLab\fuskg\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF3D71-3070-4D77-99C1-1622E83F89EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579A73EE-6E4B-40C7-9BA1-22B5F5DF34C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>CQ- ID</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Which are the activities of category C that consume at least 200 kcal?</t>
+  </si>
+  <si>
+    <t>Where is it possible to find a video showing how to prepare recipe Z?</t>
+  </si>
+  <si>
+    <t>CQ4-3</t>
   </si>
 </sst>
 </file>
@@ -778,10 +784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,31 +972,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>43</v>
-      </c>
+    <row r="19" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,37 +1015,37 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>52</v>
-      </c>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,10 +1053,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,38 +1064,38 @@
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>59</v>
-      </c>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,9 +1103,20 @@
         <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1111,6 +1128,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6a60e2f5-e663-45b7-9051-ee3c8521a2cc">
@@ -1119,15 +1145,6 @@
     <TaxCatchAll xmlns="49e364f8-bd3b-41c6-8911-b59b97be73e9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1340,20 +1357,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21152A3F-6C8B-486B-9DE4-8A74F4F4EEDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A5A3-46D0-40F0-8946-BD14A21BBDF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6a60e2f5-e663-45b7-9051-ee3c8521a2cc"/>
     <ds:schemaRef ds:uri="49e364f8-bd3b-41c6-8911-b59b97be73e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21152A3F-6C8B-486B-9DE4-8A74F4F4EEDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements/requirements-CQs.xlsx
+++ b/requirements/requirements-CQs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanar\Desktop\Work\IDA\Projects\GitLab\fuskg\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanar\Desktop\Work\IDA\Projects\GitHub\FuS-KG\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579A73EE-6E4B-40C7-9BA1-22B5F5DF34C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CE8E24-A4D0-42FD-8ED8-74CFE2974471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -72,21 +72,6 @@
     <t>REQ8</t>
   </si>
   <si>
-    <t>The KG must provide a comprehensive list of activities that a person can perform. For each activity, it must be provided the knowledge required to understand the effort necessary to complete the activity to enable the inference of how much of each food defined under REQ1 is necessary to fulfill the activity.</t>
-  </si>
-  <si>
-    <t>The KG must include the model of the barriers that may affect a person and how such barriers obstacle the fulfillment of specific activities, the consumption of specific foods, or, in general, the following of specific guidelines.</t>
-  </si>
-  <si>
-    <t>The KG must support the modeling of multi-modal knowledge since a MMKG may be exploited to better support users’ education tasks and enable knowledge injection tasks into large foundational models.</t>
-  </si>
-  <si>
-    <t>A KG usable for creating a behavior change solution requires a set of guidelines driving the behavior change intervention.</t>
-  </si>
-  <si>
-    <t>The KG must include temporal knowledge to support the requirements above and enable temporal reasoning over the users’ collected knowledge.</t>
-  </si>
-  <si>
     <t>REQ-ID</t>
   </si>
   <si>
@@ -222,15 +207,6 @@
     <t>Which are the timespans used to build guidelines?</t>
   </si>
   <si>
-    <t>The KG must conceptualize the food domain at a fine-grained level.</t>
-  </si>
-  <si>
-    <t>Knowledge modeled under the requirements REQ1, REQ2, REQ3, and REQ4 must be associated with knowledge and data gathered from users’ input.</t>
-  </si>
-  <si>
-    <t>The KG must be designed with a modular structure to ease its management and maintenance.</t>
-  </si>
-  <si>
     <t>CQ1-4</t>
   </si>
   <si>
@@ -247,6 +223,30 @@
   </si>
   <si>
     <t>CQ4-3</t>
+  </si>
+  <si>
+    <t>The MMKG must provide a comprehensive list of activities that a person can perform. For each activity, it must be provided the knowledge required to understand the effort necessary to complete the activity to enable the inference of how much of each food defined under REQ1 is necessary to fulfill the activity.</t>
+  </si>
+  <si>
+    <t>The MMKG must include the model of the barriers that may affect a person and how such barriers obstruct the fulfillment of specific activities, the consumption of specific foods, or, in general, the following of specific guidelines.</t>
+  </si>
+  <si>
+    <t>The MMKG must conceptualize the food domain at a finegrained level. This means that the whole knowledge chain from defining each nutrient to modeling complex recipes must be supported.</t>
+  </si>
+  <si>
+    <t>The MMKG must support the modeling of multi-modal knowledge since a MMKG may be exploited to better support users’ education tasks and enable knowledge injection tasks into large foundational models. Hence, the MMKG must include a multi-modal knowledge representation, e.g., images of recipes and videos of how to execute activities.</t>
+  </si>
+  <si>
+    <t>Knowledge modeled under the requirements REQ1, REQ2, REQ3, and REQ4 must be associated with knowledge and data gathered from users’ input. Hence, the MMKG must include the appropriate set of concepts to enable the definition of a user model and to support the linking between such a user model and the domain knowledge defined through the requirements mentioned above</t>
+  </si>
+  <si>
+    <t>A MMKG usable for creating a behavior change solution requires a set of guidelines driving the behavior change intervention. A reasoner can exploit such guidelines to detect situations where a user is not adhering to them. To enable this feature the MMKG must define the conceptual knowledge that: (i) enables the modeling of such guidelines; (ii) defines how they can be associated with the domain knowledge covered by the MMKG; and, (iii) allows their linking with a user profile</t>
+  </si>
+  <si>
+    <t>The requirements discussed above refer to the notion of time in different ways. For example, the merge of REQ2 and REQ4 concerning the modeling of an activity and how to perform it, requires the modeling of the different steps and their temporal order. Similarly, both requirements REQ5 and REQ6 need the notion of time associated with the knowledge gathered by the user and when users’ data should be checked, respectively. Hence, the MMKG must include temporal knowledge to support the requirements above and enable temporal reasoning over the users’ collected knowledge.</t>
+  </si>
+  <si>
+    <t>Working with such different domains may lead to building a very large MMKG. Hence, the MMKG must be designed with a modular structure to ease its management and maintenance.</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -681,17 +681,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="78.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -699,81 +699,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
     </row>
   </sheetData>
@@ -786,20 +786,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -808,316 +808,316 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="10" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1128,15 +1128,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6a60e2f5-e663-45b7-9051-ee3c8521a2cc">
@@ -1145,6 +1136,15 @@
     <TaxCatchAll xmlns="49e364f8-bd3b-41c6-8911-b59b97be73e9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,20 +1357,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21152A3F-6C8B-486B-9DE4-8A74F4F4EEDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A5A3-46D0-40F0-8946-BD14A21BBDF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6a60e2f5-e663-45b7-9051-ee3c8521a2cc"/>
     <ds:schemaRef ds:uri="49e364f8-bd3b-41c6-8911-b59b97be73e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21152A3F-6C8B-486B-9DE4-8A74F4F4EEDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
